--- a/CanhBuy.xlsx
+++ b/CanhBuy.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
